--- a/recombination/RDP_stat_results.xlsx
+++ b/recombination/RDP_stat_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/mada-bat-picornavirus/recombination/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F065ED-E45E-DC44-B2ED-CB43B494642E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4A1F48-DD27-5742-BC98-EE4E2CCB8CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34840" yWindow="-1980" windowWidth="24780" windowHeight="20060" xr2:uid="{7173B92A-A4DA-FA49-BF6D-5131D4B31380}"/>
+    <workbookView xWindow="49900" yWindow="-1560" windowWidth="16860" windowHeight="19640" xr2:uid="{7173B92A-A4DA-FA49-BF6D-5131D4B31380}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,22 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
-  <si>
-    <t>alignment</t>
-  </si>
-  <si>
-    <t>major parent</t>
-  </si>
-  <si>
-    <t>minor parent</t>
-  </si>
-  <si>
-    <t>recombinant</t>
-  </si>
-  <si>
-    <t>batpicorna_bootscan_align_nt.fasta</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="159">
   <si>
     <t>Bat_picornavirus_3</t>
   </si>
@@ -62,18 +47,6 @@
     <t>PP766469</t>
   </si>
   <si>
-    <t>308-372</t>
-  </si>
-  <si>
-    <t>region in alignment (bp)</t>
-  </si>
-  <si>
-    <t>region in recombinant (bp)</t>
-  </si>
-  <si>
-    <t>10-73</t>
-  </si>
-  <si>
     <t xml:space="preserve"> RDP</t>
   </si>
   <si>
@@ -102,13 +75,451 @@
   </si>
   <si>
     <t>NS</t>
+  </si>
+  <si>
+    <t>batpicorna_rdp_align</t>
+  </si>
+  <si>
+    <t>Breakpoint Positions</t>
+  </si>
+  <si>
+    <t>In Alignment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>In Recombinant Sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Detection Methods</t>
+  </si>
+  <si>
+    <t>Recombination Event Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Begin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> End</t>
+  </si>
+  <si>
+    <t>Begin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recombinant Sequence(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Minor Parental Sequence(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Major Parental Sequence(s)</t>
+  </si>
+  <si>
+    <t>^Shanbavirus_A</t>
+  </si>
+  <si>
+    <t>Unknown (OQ818328)</t>
+  </si>
+  <si>
+    <t>OP963617.1</t>
+  </si>
+  <si>
+    <t>Unknown(OQ818325)</t>
+  </si>
+  <si>
+    <t>^OP963617.1</t>
+  </si>
+  <si>
+    <t>OQ818325</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 688*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 379*</t>
+  </si>
+  <si>
+    <t>^PP766469</t>
+  </si>
+  <si>
+    <t>Unknown (OP963617.1)</t>
+  </si>
+  <si>
+    <t>Plot?</t>
+  </si>
+  <si>
+    <t>batpicorna_rdp_align_left</t>
+  </si>
+  <si>
+    <t>Shanbavirus_A</t>
+  </si>
+  <si>
+    <t>PP766471</t>
+  </si>
+  <si>
+    <t>^PP766471</t>
+  </si>
+  <si>
+    <t>Unknown (Bat_picornavirus_3)</t>
+  </si>
+  <si>
+    <t>batpicorna_rdp_align_mid</t>
+  </si>
+  <si>
+    <t>Unknown (PP766469)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2359*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2187*</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>batpicorna_rdp_align_right</t>
+  </si>
+  <si>
+    <t>^OQ818346</t>
+  </si>
+  <si>
+    <t>PP766475</t>
+  </si>
+  <si>
+    <t>hepato_rdp_align</t>
+  </si>
+  <si>
+    <t>^NC_028366.1</t>
+  </si>
+  <si>
+    <t>PP766455</t>
+  </si>
+  <si>
+    <t>Unknown (NC_028981.1)</t>
+  </si>
+  <si>
+    <t>NC_028981.1</t>
+  </si>
+  <si>
+    <t>Unknown(PP766455)</t>
+  </si>
+  <si>
+    <t>Unknown(PP766457)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 824*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 576*</t>
+  </si>
+  <si>
+    <t>Hipposideros_bat_hepatovirus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 841*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 756*</t>
+  </si>
+  <si>
+    <t>^Hipposideros_bat_hepatovirus</t>
+  </si>
+  <si>
+    <t>Unknown (PP766455)</t>
+  </si>
+  <si>
+    <t>NC_028366.1</t>
+  </si>
+  <si>
+    <t>PP766457</t>
+  </si>
+  <si>
+    <t>^NC_028981.1</t>
+  </si>
+  <si>
+    <t>Unknown (NC_038313.1)</t>
+  </si>
+  <si>
+    <t>NC_038313.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1432*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1151*</t>
+  </si>
+  <si>
+    <t>^NC_038313.1</t>
+  </si>
+  <si>
+    <t>kobu_rdp_align</t>
+  </si>
+  <si>
+    <t>OP287812.1</t>
+  </si>
+  <si>
+    <t>NC_034971.1</t>
+  </si>
+  <si>
+    <t>OQ818322</t>
+  </si>
+  <si>
+    <t>PP766456</t>
+  </si>
+  <si>
+    <t>^Rhinolophus_kobuvirus</t>
+  </si>
+  <si>
+    <t>Unknown (OQ818322)</t>
+  </si>
+  <si>
+    <t>Unknown(PP766456)</t>
+  </si>
+  <si>
+    <t>^PP766456</t>
+  </si>
+  <si>
+    <t>Rhinolophus_kobuvirus</t>
+  </si>
+  <si>
+    <t>Unknown (NC_034971.1)</t>
+  </si>
+  <si>
+    <t>^OQ818322</t>
+  </si>
+  <si>
+    <t>kobu_rdp_align_mid</t>
+  </si>
+  <si>
+    <t>PP766451</t>
+  </si>
+  <si>
+    <t>Unknown (Rhinolophus_kobuvirus)</t>
+  </si>
+  <si>
+    <t>Unknown(NC_034971.1)</t>
+  </si>
+  <si>
+    <t>kunsagi_rdp_align</t>
+  </si>
+  <si>
+    <t>^OP589993.1</t>
+  </si>
+  <si>
+    <t>Unknown (NC_034206.1)</t>
+  </si>
+  <si>
+    <t>NC_033818.1</t>
+  </si>
+  <si>
+    <t>mischi_rdp_align</t>
+  </si>
+  <si>
+    <t>^NC_026470.1</t>
+  </si>
+  <si>
+    <t>Bat_mischivirus_5</t>
+  </si>
+  <si>
+    <t>OQ818316</t>
+  </si>
+  <si>
+    <t>^Mischivirus_B</t>
+  </si>
+  <si>
+    <t>Unknown (OQ818316)</t>
+  </si>
+  <si>
+    <t>^OQ818316</t>
+  </si>
+  <si>
+    <t>Unknown (Mischivirus_B)</t>
+  </si>
+  <si>
+    <t>NC_026470.1</t>
+  </si>
+  <si>
+    <t>sapelo_rdp_align</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8084*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7487*</t>
+  </si>
+  <si>
+    <t>^Pteropodidae_bat_sapelovirus</t>
+  </si>
+  <si>
+    <t>Unknown (OQ818321)</t>
+  </si>
+  <si>
+    <t>OQ818329</t>
+  </si>
+  <si>
+    <t>^OQ818329</t>
+  </si>
+  <si>
+    <t>NC_033820.1</t>
+  </si>
+  <si>
+    <t>Unknown (NC_003987.1)</t>
+  </si>
+  <si>
+    <t>OQ818320</t>
+  </si>
+  <si>
+    <t>OQ818321</t>
+  </si>
+  <si>
+    <t>Unknown (OQ818329)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7716*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7366*</t>
+  </si>
+  <si>
+    <t>sapelo_rdp_align_mid1</t>
+  </si>
+  <si>
+    <t>Unknown (PP766466)</t>
+  </si>
+  <si>
+    <t>PP766462</t>
+  </si>
+  <si>
+    <t>Unknown(OQ818320)</t>
+  </si>
+  <si>
+    <t>sapelo_rdp_align_mid2</t>
+  </si>
+  <si>
+    <t>^NC_003987.1</t>
+  </si>
+  <si>
+    <t>sapo_rdp_align</t>
+  </si>
+  <si>
+    <t>^E_helvum_sapovirus</t>
+  </si>
+  <si>
+    <t>PP766459</t>
+  </si>
+  <si>
+    <t>Unknown (R_leschenaulti_sapovirus)</t>
+  </si>
+  <si>
+    <t>OQ818319</t>
+  </si>
+  <si>
+    <t>sapo_rdp_align_left</t>
+  </si>
+  <si>
+    <t>Unknown (PP766474)</t>
+  </si>
+  <si>
+    <t>sapo_rdp_align_mid</t>
+  </si>
+  <si>
+    <t>^OQ818348</t>
+  </si>
+  <si>
+    <t>PP766470</t>
+  </si>
+  <si>
+    <t>Unknown (OQ818319)</t>
+  </si>
+  <si>
+    <t>Unknown(PP766459)</t>
+  </si>
+  <si>
+    <t>sapo_rdp_align_right</t>
+  </si>
+  <si>
+    <t>E_helvum_sapovirus</t>
+  </si>
+  <si>
+    <t>PP766477</t>
+  </si>
+  <si>
+    <t>PP766460</t>
+  </si>
+  <si>
+    <t>tescho_rdp_align</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 230*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0*</t>
+  </si>
+  <si>
+    <t>^Pteropodidae_bat_teschovirus</t>
+  </si>
+  <si>
+    <t>LC386158.1</t>
+  </si>
+  <si>
+    <t>OQ818323</t>
+  </si>
+  <si>
+    <t>tescho_rdp_all_align</t>
+  </si>
+  <si>
+    <t>^LC386158.1</t>
+  </si>
+  <si>
+    <t>Pteropodidae_bat_teschovirus</t>
+  </si>
+  <si>
+    <t>Unknown (KX420938.1)</t>
+  </si>
+  <si>
+    <t>Recombination?</t>
+  </si>
+  <si>
+    <t>Table Key:</t>
+  </si>
+  <si>
+    <t>~            = It is possible that this apparent recombination signal could have been caused by an evolutionary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               process other than recombination.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*            = The actual breakpoint position is undetermined (it was most likely overprinted by a subsequent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">               recombination event).</t>
+  </si>
+  <si>
+    <t>^            = The recombinant sequence may have been misidentified (one of the identified parents might be the recombinant)</t>
+  </si>
+  <si>
+    <t>Minor Parent = Parent contributing the smaller fraction of sequence.</t>
+  </si>
+  <si>
+    <t>Major Parent = Parent contributing the larger fraction of sequence.</t>
+  </si>
+  <si>
+    <t>Unknown      = Only one parent and a recombinant need be in the alignment for a recombination event to be detectable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               The sequence listed as unknown was used to infer the existance of a missing parental sequence.</t>
+  </si>
+  <si>
+    <t>NS           = No significant P-value was recorded for this recombination event using this method.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -116,13 +527,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -137,9 +568,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,106 +908,2762 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AAC26AD-18DB-FE4A-B09D-2BF3426A443C}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:T87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" t="s">
+        <v>147</v>
+      </c>
+      <c r="T3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>184</v>
+      </c>
+      <c r="D4">
+        <v>836</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>177</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1.7100000000000001E-7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2.7399999999999999E-5</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.01E-3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>693</v>
+      </c>
+      <c r="D6">
+        <v>797</v>
+      </c>
+      <c r="E6">
+        <v>507</v>
+      </c>
+      <c r="F6">
+        <v>555</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="2">
+        <v>2.0899999999999998E-3</v>
+      </c>
+      <c r="M6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C8">
+        <v>528</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>222</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="2">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="2">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="S8" s="2"/>
+      <c r="T8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>102</v>
+      </c>
+      <c r="D9">
+        <v>264</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>156</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2.3900000000000001E-4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1.25E-4</v>
+      </c>
+      <c r="M9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="2">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C11">
+        <v>171</v>
+      </c>
+      <c r="D11">
+        <v>638</v>
+      </c>
+      <c r="E11">
+        <v>164</v>
+      </c>
+      <c r="F11">
+        <v>550</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>513</v>
+      </c>
+      <c r="D14">
+        <v>616</v>
+      </c>
+      <c r="E14">
+        <v>494</v>
+      </c>
+      <c r="F14">
+        <v>528</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="3">
+        <v>3.2119246999999997E-2</v>
+      </c>
+      <c r="L14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C15">
+        <v>2255</v>
+      </c>
+      <c r="D15">
+        <v>2581</v>
+      </c>
+      <c r="E15">
+        <v>2023</v>
+      </c>
+      <c r="F15">
+        <v>2343</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="2">
+        <v>2.93E-2</v>
+      </c>
+      <c r="M15" s="2">
+        <v>2.96E-3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>12</v>
+      </c>
+      <c r="R15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2319</v>
+      </c>
+      <c r="D16">
+        <v>2504</v>
+      </c>
+      <c r="E16">
+        <v>2254</v>
+      </c>
+      <c r="F16">
+        <v>2439</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="M16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17">
+        <v>2418</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17">
+        <v>2246</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>12</v>
+      </c>
+      <c r="R17" s="2">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>516</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18">
+        <v>391</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="N18" s="2">
+        <v>5.0200000000000002E-3</v>
+      </c>
+      <c r="O18" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18" s="2">
+        <v>3.6900000000000002E-2</v>
+      </c>
+      <c r="S18" s="2"/>
+      <c r="T18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>7740</v>
+      </c>
+      <c r="D22">
+        <v>790</v>
+      </c>
+      <c r="E22">
+        <v>7224</v>
+      </c>
+      <c r="F22">
+        <v>560</v>
+      </c>
+      <c r="G22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1.2E-4</v>
+      </c>
+      <c r="K22" s="2">
+        <v>8.6899999999999996E-7</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1.4699999999999999E-8</v>
+      </c>
+      <c r="M22" s="3">
+        <v>3.9834974000000002E-2</v>
+      </c>
+      <c r="N22" s="2">
+        <v>3.8E-3</v>
+      </c>
+      <c r="O22" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>12</v>
+      </c>
+      <c r="R22" t="s">
+        <v>12</v>
+      </c>
+      <c r="T22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25">
+        <v>7739</v>
+      </c>
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25">
+        <v>7223</v>
+      </c>
+      <c r="G25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" t="s">
+        <v>59</v>
+      </c>
+      <c r="I25" t="s">
+        <v>52</v>
+      </c>
+      <c r="J25" s="2">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="K25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="2">
+        <v>4.6299999999999996E-3</v>
+      </c>
+      <c r="M25" s="2">
+        <v>5.2199999999999998E-3</v>
+      </c>
+      <c r="N25" s="2">
+        <v>5.79E-3</v>
+      </c>
+      <c r="O25" t="s">
+        <v>12</v>
+      </c>
+      <c r="P25" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>12</v>
+      </c>
+      <c r="R25" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="S25" s="2"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26">
+        <v>1373</v>
+      </c>
+      <c r="E26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26">
+        <v>1288</v>
+      </c>
+      <c r="G26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" t="s">
+        <v>12</v>
+      </c>
+      <c r="O26" t="s">
+        <v>12</v>
+      </c>
+      <c r="P26" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>12</v>
+      </c>
+      <c r="R26" s="2">
+        <v>6.6400000000000001E-3</v>
+      </c>
+      <c r="S26" s="2"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="H27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="H28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>3753</v>
+      </c>
+      <c r="D29">
+        <v>4874</v>
+      </c>
+      <c r="E29">
+        <v>3440</v>
+      </c>
+      <c r="F29">
+        <v>4511</v>
+      </c>
+      <c r="G29" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K29" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" s="2">
+        <v>9.7199999999999999E-4</v>
+      </c>
+      <c r="N29" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="O29" t="s">
+        <v>12</v>
+      </c>
+      <c r="P29" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>12</v>
+      </c>
+      <c r="R29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="H30" t="s">
+        <v>55</v>
+      </c>
+      <c r="I30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="H31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>1294</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32">
+        <v>1013</v>
+      </c>
+      <c r="F32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" t="s">
+        <v>59</v>
+      </c>
+      <c r="I32" t="s">
+        <v>65</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="K32" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32" t="s">
+        <v>12</v>
+      </c>
+      <c r="N32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O32" t="s">
+        <v>12</v>
+      </c>
+      <c r="P32" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>12</v>
+      </c>
+      <c r="R32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>8423</v>
+      </c>
+      <c r="D33">
+        <v>8488</v>
+      </c>
+      <c r="E33">
+        <v>8205</v>
+      </c>
+      <c r="F33">
+        <v>8240</v>
+      </c>
+      <c r="G33" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" t="s">
+        <v>75</v>
+      </c>
+      <c r="I33" t="s">
+        <v>74</v>
+      </c>
+      <c r="J33" s="2">
+        <v>3.5899999999999998E-5</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1.36E-14</v>
+      </c>
+      <c r="L33" s="2">
+        <v>4.1400000000000002E-20</v>
+      </c>
+      <c r="M33" s="2">
+        <v>1.47E-4</v>
+      </c>
+      <c r="N33" s="2">
+        <v>1.2800000000000001E-3</v>
+      </c>
+      <c r="O33" t="s">
+        <v>12</v>
+      </c>
+      <c r="P33" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>12</v>
+      </c>
+      <c r="R33" s="2">
+        <v>1.7500000000000001E-8</v>
+      </c>
+      <c r="S33" s="2"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>8374</v>
+      </c>
+      <c r="D35">
+        <v>8488</v>
+      </c>
+      <c r="E35">
+        <v>7645</v>
+      </c>
+      <c r="F35">
+        <v>7702</v>
+      </c>
+      <c r="G35" t="s">
+        <v>77</v>
+      </c>
+      <c r="H35" t="s">
+        <v>74</v>
+      </c>
+      <c r="I35" t="s">
+        <v>78</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1.1600000000000001E-5</v>
+      </c>
+      <c r="K35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1.47E-4</v>
+      </c>
+      <c r="M35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N35" s="2">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="O35" t="s">
+        <v>12</v>
+      </c>
+      <c r="P35" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>12</v>
+      </c>
+      <c r="R35" s="2">
+        <v>4.4299999999999999E-2</v>
+      </c>
+      <c r="S35" s="2"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="I36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>3338</v>
+      </c>
+      <c r="D37">
+        <v>3639</v>
+      </c>
+      <c r="E37">
+        <v>3195</v>
+      </c>
+      <c r="F37">
+        <v>3490</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" t="s">
+        <v>82</v>
+      </c>
+      <c r="I37" t="s">
+        <v>81</v>
+      </c>
+      <c r="J37" s="2">
+        <v>3.2700000000000002E-5</v>
+      </c>
+      <c r="K37" t="s">
+        <v>12</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1.12E-2</v>
+      </c>
+      <c r="M37" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="N37" s="2">
+        <v>4.81E-3</v>
+      </c>
+      <c r="O37" t="s">
+        <v>12</v>
+      </c>
+      <c r="P37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R37" s="2">
+        <v>1.9699999999999999E-4</v>
+      </c>
+      <c r="S37" s="2"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>4669</v>
+      </c>
+      <c r="D40">
+        <v>5714</v>
+      </c>
+      <c r="E40">
+        <v>4549</v>
+      </c>
+      <c r="F40">
+        <v>5594</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H40" t="s">
+        <v>81</v>
+      </c>
+      <c r="I40" t="s">
+        <v>82</v>
+      </c>
+      <c r="J40" s="2">
+        <v>3.5599999999999998E-3</v>
+      </c>
+      <c r="K40" t="s">
+        <v>12</v>
+      </c>
+      <c r="L40" s="2">
+        <v>1.33E-3</v>
+      </c>
+      <c r="M40" s="2">
+        <v>2.8500000000000001E-3</v>
+      </c>
+      <c r="N40" s="2">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="O40" t="s">
+        <v>12</v>
+      </c>
+      <c r="P40" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>12</v>
+      </c>
+      <c r="R40" t="s">
+        <v>12</v>
+      </c>
+      <c r="T40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1235</v>
+      </c>
+      <c r="D43">
+        <v>562</v>
+      </c>
+      <c r="E43">
+        <v>1229</v>
+      </c>
+      <c r="F43">
+        <v>562</v>
+      </c>
+      <c r="G43" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43" t="s">
+        <v>76</v>
+      </c>
+      <c r="I43" t="s">
+        <v>74</v>
+      </c>
+      <c r="J43" s="2">
+        <v>7.8300000000000006E-5</v>
+      </c>
+      <c r="K43" t="s">
+        <v>12</v>
+      </c>
+      <c r="L43" s="2">
+        <v>2.61E-6</v>
+      </c>
+      <c r="M43" s="2">
+        <v>8.2400000000000008E-3</v>
+      </c>
+      <c r="N43" s="2">
+        <v>1.11E-4</v>
+      </c>
+      <c r="O43" t="s">
+        <v>12</v>
+      </c>
+      <c r="P43" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>12</v>
+      </c>
+      <c r="R43" s="3">
+        <v>2.2357399999999999E-3</v>
+      </c>
+      <c r="S43" s="3"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>2209</v>
+      </c>
+      <c r="D47">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E47">
+        <v>2174</v>
+      </c>
+      <c r="F47">
+        <v>7</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H47" t="s">
+        <v>74</v>
+      </c>
+      <c r="I47" t="s">
+        <v>86</v>
+      </c>
+      <c r="J47" s="2">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="K47" t="s">
+        <v>12</v>
+      </c>
+      <c r="L47" s="2">
+        <v>4.9699999999999996E-3</v>
+      </c>
+      <c r="M47" s="2">
+        <v>1.91E-3</v>
+      </c>
+      <c r="N47" s="2">
+        <v>4.0200000000000001E-3</v>
+      </c>
+      <c r="O47" t="s">
+        <v>12</v>
+      </c>
+      <c r="P47" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>12</v>
+      </c>
+      <c r="R47" t="s">
+        <v>12</v>
+      </c>
+      <c r="T47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2091</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2141</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1938</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1988</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J51" s="2">
+        <v>4.4499999999999997E-4</v>
+      </c>
+      <c r="K51" s="2">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S51" s="1"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>5876</v>
+      </c>
+      <c r="D52">
+        <v>5979</v>
+      </c>
+      <c r="E52">
+        <v>5280</v>
+      </c>
+      <c r="F52">
+        <v>5377</v>
+      </c>
+      <c r="G52" t="s">
+        <v>93</v>
+      </c>
+      <c r="H52" t="s">
+        <v>95</v>
+      </c>
+      <c r="I52" t="s">
+        <v>94</v>
+      </c>
+      <c r="J52" s="2">
+        <v>1.4799999999999999E-4</v>
+      </c>
+      <c r="K52" t="s">
+        <v>12</v>
+      </c>
+      <c r="L52" t="s">
+        <v>12</v>
+      </c>
+      <c r="M52" s="2">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="N52" s="2">
+        <v>9.3200000000000002E-3</v>
+      </c>
+      <c r="O52" t="s">
+        <v>12</v>
+      </c>
+      <c r="P52" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>12</v>
+      </c>
+      <c r="R52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>1104</v>
+      </c>
+      <c r="D53">
+        <v>1355</v>
+      </c>
+      <c r="E53">
+        <v>105</v>
+      </c>
+      <c r="F53">
+        <v>229</v>
+      </c>
+      <c r="G53" t="s">
+        <v>96</v>
+      </c>
+      <c r="H53" t="s">
+        <v>94</v>
+      </c>
+      <c r="I53" t="s">
+        <v>97</v>
+      </c>
+      <c r="J53" s="2">
+        <v>1.1100000000000001E-3</v>
+      </c>
+      <c r="K53" t="s">
+        <v>12</v>
+      </c>
+      <c r="L53" t="s">
+        <v>12</v>
+      </c>
+      <c r="M53" s="2">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N53" s="2">
+        <v>3.56E-2</v>
+      </c>
+      <c r="O53" t="s">
+        <v>12</v>
+      </c>
+      <c r="P53" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>12</v>
+      </c>
+      <c r="R53" s="2">
+        <v>8.6599999999999993E-3</v>
+      </c>
+      <c r="S53" s="2"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>6151</v>
+      </c>
+      <c r="D54">
+        <v>6526</v>
+      </c>
+      <c r="E54">
+        <v>5495</v>
+      </c>
+      <c r="F54">
+        <v>5762</v>
+      </c>
+      <c r="G54" t="s">
+        <v>98</v>
+      </c>
+      <c r="H54" t="s">
+        <v>100</v>
+      </c>
+      <c r="I54" t="s">
+        <v>99</v>
+      </c>
+      <c r="J54" s="2">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="K54" t="s">
+        <v>12</v>
+      </c>
+      <c r="L54" t="s">
+        <v>12</v>
+      </c>
+      <c r="M54" s="2">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>12</v>
+      </c>
+      <c r="O54" t="s">
+        <v>12</v>
+      </c>
+      <c r="P54" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>12</v>
+      </c>
+      <c r="R54" t="s">
+        <v>12</v>
+      </c>
+      <c r="T54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>5431</v>
+      </c>
+      <c r="D55">
+        <v>5662</v>
+      </c>
+      <c r="E55">
+        <v>4835</v>
+      </c>
+      <c r="F55">
+        <v>5066</v>
+      </c>
+      <c r="G55" t="s">
+        <v>93</v>
+      </c>
+      <c r="H55" t="s">
+        <v>95</v>
+      </c>
+      <c r="I55" t="s">
+        <v>94</v>
+      </c>
+      <c r="J55" s="2">
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="K55" t="s">
+        <v>12</v>
+      </c>
+      <c r="L55" t="s">
+        <v>12</v>
+      </c>
+      <c r="M55" t="s">
+        <v>12</v>
+      </c>
+      <c r="N55" s="2">
+        <v>6.1599999999999997E-3</v>
+      </c>
+      <c r="O55" t="s">
+        <v>12</v>
+      </c>
+      <c r="P55" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>12</v>
+      </c>
+      <c r="R55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>8018</v>
+      </c>
+      <c r="D56" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56">
+        <v>7423</v>
+      </c>
+      <c r="F56" t="s">
+        <v>103</v>
+      </c>
+      <c r="G56" t="s">
+        <v>104</v>
+      </c>
+      <c r="H56" t="s">
+        <v>106</v>
+      </c>
+      <c r="I56" t="s">
+        <v>105</v>
+      </c>
+      <c r="J56" s="2">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="K56" t="s">
+        <v>12</v>
+      </c>
+      <c r="L56" t="s">
+        <v>12</v>
+      </c>
+      <c r="M56" t="s">
+        <v>12</v>
+      </c>
+      <c r="N56" t="s">
+        <v>12</v>
+      </c>
+      <c r="O56" t="s">
+        <v>12</v>
+      </c>
+      <c r="P56" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>12</v>
+      </c>
+      <c r="R56" s="2">
+        <v>6.4899999999999995E-4</v>
+      </c>
+      <c r="S56" s="2"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>159</v>
+      </c>
+      <c r="D57">
+        <v>554</v>
+      </c>
+      <c r="E57">
+        <v>34</v>
+      </c>
+      <c r="F57">
+        <v>376</v>
+      </c>
+      <c r="G57" t="s">
+        <v>107</v>
+      </c>
+      <c r="H57" t="s">
+        <v>109</v>
+      </c>
+      <c r="I57" t="s">
+        <v>108</v>
+      </c>
+      <c r="J57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K57" s="2">
+        <v>7.3899999999999999E-3</v>
+      </c>
+      <c r="L57" s="2">
+        <v>1.41E-3</v>
+      </c>
+      <c r="M57" s="2">
+        <v>2.6499999999999999E-4</v>
+      </c>
+      <c r="N57" s="2">
+        <v>2.64E-2</v>
+      </c>
+      <c r="O57" t="s">
+        <v>12</v>
+      </c>
+      <c r="P57" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>12</v>
+      </c>
+      <c r="R57" t="s">
+        <v>12</v>
+      </c>
+      <c r="T57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="I58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>4710</v>
+      </c>
+      <c r="D59">
+        <v>5092</v>
+      </c>
+      <c r="E59">
+        <v>4390</v>
+      </c>
+      <c r="F59">
+        <v>4760</v>
+      </c>
+      <c r="G59" t="s">
+        <v>107</v>
+      </c>
+      <c r="H59" t="s">
+        <v>109</v>
+      </c>
+      <c r="I59" t="s">
+        <v>108</v>
+      </c>
+      <c r="J59" s="2">
+        <v>1.6100000000000001E-3</v>
+      </c>
+      <c r="K59" s="2">
+        <v>3.19E-4</v>
+      </c>
+      <c r="L59" t="s">
+        <v>12</v>
+      </c>
+      <c r="M59" s="3">
+        <v>2.1897395E-2</v>
+      </c>
+      <c r="N59" s="2">
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="O59" t="s">
+        <v>12</v>
+      </c>
+      <c r="P59" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>12</v>
+      </c>
+      <c r="R59" t="s">
+        <v>12</v>
+      </c>
+      <c r="T59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="I60" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>7317</v>
+      </c>
+      <c r="D61">
+        <v>7651</v>
+      </c>
+      <c r="E61">
+        <v>6967</v>
+      </c>
+      <c r="F61">
+        <v>7301</v>
+      </c>
+      <c r="G61" t="s">
+        <v>111</v>
+      </c>
+      <c r="H61" t="s">
+        <v>112</v>
+      </c>
+      <c r="I61" t="s">
+        <v>108</v>
+      </c>
+      <c r="J61" s="2">
+        <v>6.3800000000000003E-3</v>
+      </c>
+      <c r="K61" t="s">
+        <v>12</v>
+      </c>
+      <c r="L61" t="s">
+        <v>12</v>
+      </c>
+      <c r="M61" t="s">
+        <v>12</v>
+      </c>
+      <c r="N61" t="s">
+        <v>12</v>
+      </c>
+      <c r="O61" t="s">
+        <v>12</v>
+      </c>
+      <c r="P61" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>12</v>
+      </c>
+      <c r="R61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1.7407050957915698E-2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2.8202403229126202E-2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1.00605384513922E-51</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" t="s">
-        <v>21</v>
+      <c r="C62" t="s">
+        <v>113</v>
+      </c>
+      <c r="D62">
+        <v>7908</v>
+      </c>
+      <c r="E62" t="s">
+        <v>114</v>
+      </c>
+      <c r="F62">
+        <v>7558</v>
+      </c>
+      <c r="G62" t="s">
+        <v>111</v>
+      </c>
+      <c r="H62" t="s">
+        <v>106</v>
+      </c>
+      <c r="I62" t="s">
+        <v>110</v>
+      </c>
+      <c r="J62" s="2">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="K62" t="s">
+        <v>12</v>
+      </c>
+      <c r="L62" t="s">
+        <v>12</v>
+      </c>
+      <c r="M62" t="s">
+        <v>12</v>
+      </c>
+      <c r="N62" t="s">
+        <v>12</v>
+      </c>
+      <c r="O62" t="s">
+        <v>12</v>
+      </c>
+      <c r="P62" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>12</v>
+      </c>
+      <c r="R62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>816</v>
+      </c>
+      <c r="D63">
+        <v>1108</v>
+      </c>
+      <c r="E63">
+        <v>801</v>
+      </c>
+      <c r="F63">
+        <v>1087</v>
+      </c>
+      <c r="G63" t="s">
+        <v>107</v>
+      </c>
+      <c r="H63" t="s">
+        <v>117</v>
+      </c>
+      <c r="I63" t="s">
+        <v>116</v>
+      </c>
+      <c r="J63" s="2">
+        <v>4.4675886271169103E-3</v>
+      </c>
+      <c r="K63" s="2">
+        <v>8.3512297805456801E-3</v>
+      </c>
+      <c r="L63" t="s">
+        <v>12</v>
+      </c>
+      <c r="M63" s="2">
+        <v>1.77129654768343E-3</v>
+      </c>
+      <c r="N63" s="2">
+        <v>2.1634006410992098E-5</v>
+      </c>
+      <c r="O63" t="s">
+        <v>12</v>
+      </c>
+      <c r="P63" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>12</v>
+      </c>
+      <c r="R63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>115</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>111</v>
+      </c>
+      <c r="I64" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>58</v>
+      </c>
+      <c r="D65">
+        <v>156</v>
+      </c>
+      <c r="E65">
+        <v>47</v>
+      </c>
+      <c r="F65">
+        <v>144</v>
+      </c>
+      <c r="G65" t="s">
+        <v>120</v>
+      </c>
+      <c r="H65" t="s">
+        <v>106</v>
+      </c>
+      <c r="I65" t="s">
+        <v>105</v>
+      </c>
+      <c r="J65" s="2">
+        <v>4.7849153526198403E-3</v>
+      </c>
+      <c r="K65" t="s">
+        <v>12</v>
+      </c>
+      <c r="L65" t="s">
+        <v>12</v>
+      </c>
+      <c r="M65" s="2">
+        <v>2.6838052182476301E-4</v>
+      </c>
+      <c r="N65" s="2">
+        <v>1.9258648757986001E-3</v>
+      </c>
+      <c r="O65" t="s">
+        <v>12</v>
+      </c>
+      <c r="P65" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>12</v>
+      </c>
+      <c r="R65" s="2">
+        <v>1.08844231994324E-2</v>
+      </c>
+      <c r="S65" s="2"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>4100</v>
+      </c>
+      <c r="D66">
+        <v>5872</v>
+      </c>
+      <c r="E66">
+        <v>4043</v>
+      </c>
+      <c r="F66">
+        <v>5766</v>
+      </c>
+      <c r="G66" t="s">
+        <v>122</v>
+      </c>
+      <c r="H66" t="s">
+        <v>124</v>
+      </c>
+      <c r="I66" t="s">
+        <v>123</v>
+      </c>
+      <c r="J66" s="2">
+        <v>1.2300000000000001E-5</v>
+      </c>
+      <c r="K66" s="2">
+        <v>1.6199999999999999E-7</v>
+      </c>
+      <c r="L66" s="2">
+        <v>3.1199999999999999E-5</v>
+      </c>
+      <c r="M66" s="2">
+        <v>2.98E-2</v>
+      </c>
+      <c r="N66" s="2">
+        <v>7.0200000000000002E-3</v>
+      </c>
+      <c r="O66" t="s">
+        <v>12</v>
+      </c>
+      <c r="P66" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>12</v>
+      </c>
+      <c r="R66" s="2">
+        <v>3.01E-4</v>
+      </c>
+      <c r="S66" s="2"/>
+      <c r="T66" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>113</v>
+      </c>
+      <c r="D68">
+        <v>268</v>
+      </c>
+      <c r="E68">
+        <v>113</v>
+      </c>
+      <c r="F68">
+        <v>265</v>
+      </c>
+      <c r="G68" t="s">
+        <v>122</v>
+      </c>
+      <c r="H68" t="s">
+        <v>125</v>
+      </c>
+      <c r="I68" t="s">
+        <v>127</v>
+      </c>
+      <c r="J68" s="2">
+        <v>4.54634381362427E-2</v>
+      </c>
+      <c r="K68" t="s">
+        <v>12</v>
+      </c>
+      <c r="L68" t="s">
+        <v>12</v>
+      </c>
+      <c r="M68" t="s">
+        <v>12</v>
+      </c>
+      <c r="N68" t="s">
+        <v>12</v>
+      </c>
+      <c r="O68" t="s">
+        <v>12</v>
+      </c>
+      <c r="P68" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>12</v>
+      </c>
+      <c r="R68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>126</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>128</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>1798</v>
+      </c>
+      <c r="D70">
+        <v>1859</v>
+      </c>
+      <c r="E70">
+        <v>1707</v>
+      </c>
+      <c r="F70">
+        <v>1768</v>
+      </c>
+      <c r="G70" t="s">
+        <v>129</v>
+      </c>
+      <c r="H70" t="s">
+        <v>131</v>
+      </c>
+      <c r="I70" t="s">
+        <v>130</v>
+      </c>
+      <c r="J70" s="3">
+        <v>3.4097340140459002E-2</v>
+      </c>
+      <c r="K70" t="s">
+        <v>12</v>
+      </c>
+      <c r="L70" t="s">
+        <v>12</v>
+      </c>
+      <c r="M70" t="s">
+        <v>12</v>
+      </c>
+      <c r="N70" t="s">
+        <v>12</v>
+      </c>
+      <c r="O70" t="s">
+        <v>12</v>
+      </c>
+      <c r="P70" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>12</v>
+      </c>
+      <c r="R70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>756</v>
+      </c>
+      <c r="D72">
+        <v>804</v>
+      </c>
+      <c r="E72">
+        <v>748</v>
+      </c>
+      <c r="F72">
+        <v>796</v>
+      </c>
+      <c r="G72" t="s">
+        <v>134</v>
+      </c>
+      <c r="H72" t="s">
+        <v>136</v>
+      </c>
+      <c r="I72" t="s">
+        <v>135</v>
+      </c>
+      <c r="J72" s="2">
+        <v>2.82623241347764E-2</v>
+      </c>
+      <c r="K72" t="s">
+        <v>12</v>
+      </c>
+      <c r="L72" t="s">
+        <v>12</v>
+      </c>
+      <c r="M72" t="s">
+        <v>12</v>
+      </c>
+      <c r="N72" s="2">
+        <v>3.1849441170988202E-2</v>
+      </c>
+      <c r="O72" t="s">
+        <v>12</v>
+      </c>
+      <c r="P72" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>12</v>
+      </c>
+      <c r="R72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>137</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>7575</v>
+      </c>
+      <c r="D73" t="s">
+        <v>138</v>
+      </c>
+      <c r="E73">
+        <v>6807</v>
+      </c>
+      <c r="F73" t="s">
+        <v>139</v>
+      </c>
+      <c r="G73" t="s">
+        <v>140</v>
+      </c>
+      <c r="H73" t="s">
+        <v>142</v>
+      </c>
+      <c r="I73" t="s">
+        <v>141</v>
+      </c>
+      <c r="J73" s="2">
+        <v>1.6299999999999999E-3</v>
+      </c>
+      <c r="K73" t="s">
+        <v>12</v>
+      </c>
+      <c r="L73" s="2">
+        <v>4.4299999999999998E-4</v>
+      </c>
+      <c r="M73" t="s">
+        <v>12</v>
+      </c>
+      <c r="N73" t="s">
+        <v>12</v>
+      </c>
+      <c r="O73" t="s">
+        <v>12</v>
+      </c>
+      <c r="P73" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>12</v>
+      </c>
+      <c r="R73" s="2">
+        <v>1.91E-3</v>
+      </c>
+      <c r="S73" s="2"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>143</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>3046</v>
+      </c>
+      <c r="D74">
+        <v>3154</v>
+      </c>
+      <c r="E74">
+        <v>2898</v>
+      </c>
+      <c r="F74">
+        <v>2959</v>
+      </c>
+      <c r="G74" t="s">
+        <v>144</v>
+      </c>
+      <c r="H74" t="s">
+        <v>146</v>
+      </c>
+      <c r="I74" t="s">
+        <v>145</v>
+      </c>
+      <c r="J74" s="2">
+        <v>4.9827072809128701E-4</v>
+      </c>
+      <c r="K74" t="s">
+        <v>12</v>
+      </c>
+      <c r="L74" s="2">
+        <v>1.13794009148623E-4</v>
+      </c>
+      <c r="M74" s="2">
+        <v>4.4695709865413297E-2</v>
+      </c>
+      <c r="N74" s="2">
+        <v>3.0316384711288101E-3</v>
+      </c>
+      <c r="O74" t="s">
+        <v>12</v>
+      </c>
+      <c r="P74" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>12</v>
+      </c>
+      <c r="R74" s="2">
+        <v>2.81053324564962E-4</v>
+      </c>
+      <c r="S74" s="2"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
